--- a/第4章excel/新建 Microsoft Excel 工作表 (2).xlsx
+++ b/第4章excel/新建 Microsoft Excel 工作表 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>员工姓名</t>
   </si>
@@ -88,16 +88,61 @@
   </si>
   <si>
     <t>工资总额</t>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率(%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>速算扣除数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;1500    &lt;=4500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4500 &lt;=9000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;9000   &lt;=35000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;35000   &lt;=55000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;55000 &lt;=80000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;80000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +161,17 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -139,9 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -782,12 +842,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1501</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4501</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>55001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2">
+        <v>80001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13505</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
